--- a/gropin/schema/metadataschema307.xlsx
+++ b/gropin/schema/metadataschema307.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Listeria monocytogenes in/on Ground pork (gropin ID: 307 )</t>
+          <t>Gropin secondary growth model for Listeria monocytogenes in/on Ground pork (gropin ID: 307 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(-3.003,45.4545454545455,length.out=21)</t>
+          <t>seq(-3.003,45.4545454545455,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(4.38438,9.6003996003996,length.out=21)</t>
+          <t>seq(4.38438,9.6003996003996,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.913913,0.999000999000999,length.out=21)</t>
+          <t>seq(0.913913,0.999000999000999,length.out=10)</t>
         </is>
       </c>
     </row>
